--- a/Beneficient/test_Regression/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Regression/Executiondir/Execution.xlsx
@@ -417,6 +417,11 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_CurrenciesSoSFunds</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -424,6 +429,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_CurrenciesSoSInvestments</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Yes</t>
